--- a/prop_brev_reg_2010_2019.xlsx
+++ b/prop_brev_reg_2010_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eleonora\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A02B17A4-DDF3-4731-838B-D9F9387AE743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875267C1-4F9E-4A09-9E9B-15B8CB05BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5C35F709-83EF-4F59-BF99-4675F4EE2BB8}"/>
   </bookViews>
@@ -50,25 +50,13 @@
     <t>Piemonte</t>
   </si>
   <si>
-    <t>Valle d'Aosta</t>
-  </si>
-  <si>
     <t>Liguria</t>
   </si>
   <si>
     <t>Lombardia</t>
   </si>
   <si>
-    <t>Trentino Alto-Adige</t>
-  </si>
-  <si>
     <t>Veneto</t>
-  </si>
-  <si>
-    <t>Friuli- Venezia Giulia</t>
-  </si>
-  <si>
-    <t>Emilia Romagna</t>
   </si>
   <si>
     <t>Toscana</t>
@@ -81,9 +69,6 @@
   </si>
   <si>
     <t>Lazio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abruzzo </t>
   </si>
   <si>
     <t>Molise</t>
@@ -106,18 +91,38 @@
   <si>
     <t>Sardegna</t>
   </si>
+  <si>
+    <t>Trentino-Alto Adige/Südtirol</t>
+  </si>
+  <si>
+    <t>Friuli-Venezia Giulia</t>
+  </si>
+  <si>
+    <t>Valle d'Aosta/Vallée d'Aoste</t>
+  </si>
+  <si>
+    <t>Emilia-Romagna</t>
+  </si>
+  <si>
+    <t>Abruzzo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF212121"/>
+      <name val="Var(--colab-code-font-family)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,8 +145,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -478,13 +486,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{655E03F8-7BC3-4AC8-B65E-4D54C14A5F1D}">
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -506,7 +514,7 @@
         <v>111.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -517,7 +525,7 @@
         <v>114.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -528,7 +536,7 @@
         <v>118.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -539,7 +547,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -550,7 +558,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -561,7 +569,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -572,7 +580,7 @@
         <v>114.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -583,7 +591,7 @@
         <v>119.3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -594,7 +602,7 @@
         <v>109.3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -605,9 +613,9 @@
         <v>112.6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>4</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B12">
         <v>2010</v>
@@ -616,9 +624,9 @@
         <v>70.3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>4</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2011</v>
@@ -627,9 +635,9 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>4</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2012</v>
@@ -638,9 +646,9 @@
         <v>26.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B15">
         <v>2013</v>
@@ -649,9 +657,9 @@
         <v>74.3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>4</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B16">
         <v>2014</v>
@@ -660,9 +668,9 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>4</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B17">
         <v>2015</v>
@@ -671,9 +679,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>4</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B18">
         <v>2016</v>
@@ -682,9 +690,9 @@
         <v>39.299999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>4</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B19">
         <v>2017</v>
@@ -693,9 +701,9 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>4</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>2018</v>
@@ -704,9 +712,9 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>4</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>2019</v>
@@ -715,9 +723,9 @@
         <v>31.8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>2010</v>
@@ -726,9 +734,9 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>2011</v>
@@ -737,9 +745,9 @@
         <v>80.599999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>2012</v>
@@ -748,9 +756,9 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>2013</v>
@@ -759,9 +767,9 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>2014</v>
@@ -770,9 +778,9 @@
         <v>73.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>2015</v>
@@ -781,9 +789,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -792,9 +800,9 @@
         <v>64.2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>2017</v>
@@ -803,9 +811,9 @@
         <v>74.599999999999994</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>2018</v>
@@ -814,9 +822,9 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>2019</v>
@@ -825,9 +833,9 @@
         <v>50.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>2010</v>
@@ -836,9 +844,9 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
         <v>2011</v>
@@ -847,9 +855,9 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
         <v>2012</v>
@@ -858,9 +866,9 @@
         <v>117.7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>2013</v>
@@ -869,9 +877,9 @@
         <v>105.3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
         <v>2014</v>
@@ -880,9 +888,9 @@
         <v>114.9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
         <v>2015</v>
@@ -891,9 +899,9 @@
         <v>116.2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>2016</v>
@@ -902,9 +910,9 @@
         <v>122.6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
         <v>2017</v>
@@ -913,9 +921,9 @@
         <v>127.5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
         <v>2018</v>
@@ -924,9 +932,9 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
         <v>2019</v>
@@ -935,9 +943,9 @@
         <v>124.9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>7</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B42">
         <v>2010</v>
@@ -946,9 +954,9 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>7</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B43">
         <v>2011</v>
@@ -957,9 +965,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>7</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B44">
         <v>2012</v>
@@ -968,9 +976,9 @@
         <v>76.3</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>7</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B45">
         <v>2013</v>
@@ -979,9 +987,9 @@
         <v>63.5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>7</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B46">
         <v>2014</v>
@@ -990,9 +998,9 @@
         <v>77.8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>7</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B47">
         <v>2015</v>
@@ -1001,9 +1009,9 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>7</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B48">
         <v>2016</v>
@@ -1012,9 +1020,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>7</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B49">
         <v>2017</v>
@@ -1023,9 +1031,9 @@
         <v>57.8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>7</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B50">
         <v>2018</v>
@@ -1034,9 +1042,9 @@
         <v>113.2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>7</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B51">
         <v>2019</v>
@@ -1045,9 +1053,9 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>2010</v>
@@ -1056,9 +1064,9 @@
         <v>115.1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>2011</v>
@@ -1067,9 +1075,9 @@
         <v>112.4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>2012</v>
@@ -1078,9 +1086,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>2013</v>
@@ -1089,9 +1097,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>2014</v>
@@ -1100,9 +1108,9 @@
         <v>109.4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>2015</v>
@@ -1111,9 +1119,9 @@
         <v>122.8</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>2016</v>
@@ -1122,9 +1130,9 @@
         <v>123.5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>2017</v>
@@ -1133,9 +1141,9 @@
         <v>132.19999999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60">
         <v>2018</v>
@@ -1144,9 +1152,9 @@
         <v>140.19999999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>2019</v>
@@ -1155,9 +1163,9 @@
         <v>134.5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>9</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B62">
         <v>2010</v>
@@ -1166,9 +1174,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>9</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B63">
         <v>2011</v>
@@ -1177,9 +1185,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>9</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B64">
         <v>2012</v>
@@ -1188,9 +1196,9 @@
         <v>226.1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>9</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B65">
         <v>2013</v>
@@ -1199,9 +1207,9 @@
         <v>254.1</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>9</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B66">
         <v>2014</v>
@@ -1210,9 +1218,9 @@
         <v>160.69999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>9</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B67">
         <v>2015</v>
@@ -1221,9 +1229,9 @@
         <v>147.4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>9</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B68">
         <v>2016</v>
@@ -1232,9 +1240,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>9</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B69">
         <v>2017</v>
@@ -1243,9 +1251,9 @@
         <v>115.5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>9</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B70">
         <v>2018</v>
@@ -1254,9 +1262,9 @@
         <v>126.5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>9</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B71">
         <v>2019</v>
@@ -1265,9 +1273,9 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>10</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B72">
         <v>2010</v>
@@ -1276,9 +1284,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>10</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B73">
         <v>2011</v>
@@ -1287,9 +1295,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>10</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B74">
         <v>2012</v>
@@ -1298,9 +1306,9 @@
         <v>176.6</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>10</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B75">
         <v>2013</v>
@@ -1309,9 +1317,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>10</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B76">
         <v>2014</v>
@@ -1320,9 +1328,9 @@
         <v>161.5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>10</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B77">
         <v>2015</v>
@@ -1331,9 +1339,9 @@
         <v>167.1</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>10</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B78">
         <v>2016</v>
@@ -1342,9 +1350,9 @@
         <v>197.8</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>10</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B79">
         <v>2017</v>
@@ -1353,9 +1361,9 @@
         <v>184.4</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>10</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B80">
         <v>2018</v>
@@ -1364,9 +1372,9 @@
         <v>196.3</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>10</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B81">
         <v>2019</v>
@@ -1375,9 +1383,9 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B82">
         <v>2010</v>
@@ -1386,9 +1394,9 @@
         <v>107.2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B83">
         <v>2011</v>
@@ -1397,9 +1405,9 @@
         <v>87.3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B84">
         <v>2012</v>
@@ -1408,9 +1416,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B85">
         <v>2013</v>
@@ -1419,9 +1427,9 @@
         <v>88.2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B86">
         <v>2014</v>
@@ -1430,9 +1438,9 @@
         <v>92.8</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B87">
         <v>2015</v>
@@ -1441,9 +1449,9 @@
         <v>94.3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B88">
         <v>2016</v>
@@ -1452,9 +1460,9 @@
         <v>102.2</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B89">
         <v>2017</v>
@@ -1463,9 +1471,9 @@
         <v>99.5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B90">
         <v>2018</v>
@@ -1474,9 +1482,9 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B91">
         <v>2019</v>
@@ -1485,9 +1493,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B92">
         <v>2010</v>
@@ -1496,9 +1504,9 @@
         <v>37.4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B93">
         <v>2011</v>
@@ -1507,9 +1515,9 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B94">
         <v>2012</v>
@@ -1518,9 +1526,9 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B95">
         <v>2013</v>
@@ -1529,9 +1537,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B96">
         <v>2014</v>
@@ -1540,9 +1548,9 @@
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B97">
         <v>2015</v>
@@ -1551,9 +1559,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B98">
         <v>2016</v>
@@ -1562,9 +1570,9 @@
         <v>43.9</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B99">
         <v>2017</v>
@@ -1573,9 +1581,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B100">
         <v>2018</v>
@@ -1584,9 +1592,9 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B101">
         <v>2019</v>
@@ -1595,9 +1603,9 @@
         <v>38.9</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B102">
         <v>2010</v>
@@ -1606,9 +1614,9 @@
         <v>96.6</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B103">
         <v>2011</v>
@@ -1617,9 +1625,9 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B104">
         <v>2012</v>
@@ -1628,9 +1636,9 @@
         <v>84.8</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B105">
         <v>2013</v>
@@ -1639,9 +1647,9 @@
         <v>77.3</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B106">
         <v>2014</v>
@@ -1650,9 +1658,9 @@
         <v>76.900000000000006</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B107">
         <v>2015</v>
@@ -1661,9 +1669,9 @@
         <v>89.4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B108">
         <v>2016</v>
@@ -1672,9 +1680,9 @@
         <v>79.400000000000006</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B109">
         <v>2017</v>
@@ -1683,9 +1691,9 @@
         <v>79.900000000000006</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B110">
         <v>2018</v>
@@ -1694,9 +1702,9 @@
         <v>66.599999999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B111">
         <v>2019</v>
@@ -1705,9 +1713,9 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B112">
         <v>2010</v>
@@ -1716,9 +1724,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B113">
         <v>2011</v>
@@ -1727,9 +1735,9 @@
         <v>41.3</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B114">
         <v>2012</v>
@@ -1738,9 +1746,9 @@
         <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B115">
         <v>2013</v>
@@ -1749,9 +1757,9 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B116">
         <v>2014</v>
@@ -1760,9 +1768,9 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B117">
         <v>2015</v>
@@ -1771,9 +1779,9 @@
         <v>32.1</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B118">
         <v>2016</v>
@@ -1782,9 +1790,9 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B119">
         <v>2017</v>
@@ -1793,9 +1801,9 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B120">
         <v>2018</v>
@@ -1804,9 +1812,9 @@
         <v>41.2</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B121">
         <v>2019</v>
@@ -1815,9 +1823,9 @@
         <v>35.9</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B122">
         <v>2010</v>
@@ -1826,9 +1834,9 @@
         <v>39.9</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B123">
         <v>2011</v>
@@ -1837,9 +1845,9 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B124">
         <v>2012</v>
@@ -1848,9 +1856,9 @@
         <v>34.1</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B125">
         <v>2013</v>
@@ -1859,9 +1867,9 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B126">
         <v>2014</v>
@@ -1870,9 +1878,9 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B127">
         <v>2015</v>
@@ -1881,9 +1889,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B128">
         <v>2016</v>
@@ -1892,9 +1900,9 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B129">
         <v>2017</v>
@@ -1903,9 +1911,9 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B130">
         <v>2018</v>
@@ -1914,9 +1922,9 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B131">
         <v>2019</v>
@@ -1925,9 +1933,9 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B132">
         <v>2010</v>
@@ -1936,9 +1944,9 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B133">
         <v>2011</v>
@@ -1947,9 +1955,9 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B134">
         <v>2012</v>
@@ -1958,9 +1966,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B135">
         <v>2013</v>
@@ -1969,9 +1977,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B136">
         <v>2014</v>
@@ -1980,9 +1988,9 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B137">
         <v>2015</v>
@@ -1991,9 +1999,9 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B138">
         <v>2016</v>
@@ -2002,9 +2010,9 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B139">
         <v>2017</v>
@@ -2013,9 +2021,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B140">
         <v>2018</v>
@@ -2024,9 +2032,9 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B141">
         <v>2019</v>
@@ -2035,9 +2043,9 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B142">
         <v>2010</v>
@@ -2046,9 +2054,9 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B143">
         <v>2011</v>
@@ -2057,9 +2065,9 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B144">
         <v>2012</v>
@@ -2068,9 +2076,9 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B145">
         <v>2013</v>
@@ -2079,9 +2087,9 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B146">
         <v>2014</v>
@@ -2090,9 +2098,9 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B147">
         <v>2015</v>
@@ -2101,9 +2109,9 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B148">
         <v>2016</v>
@@ -2112,9 +2120,9 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B149">
         <v>2017</v>
@@ -2123,9 +2131,9 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B150">
         <v>2018</v>
@@ -2134,9 +2142,9 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B151">
         <v>2019</v>
@@ -2145,9 +2153,9 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B152">
         <v>2010</v>
@@ -2156,9 +2164,9 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B153">
         <v>2011</v>
@@ -2167,9 +2175,9 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B154">
         <v>2012</v>
@@ -2178,9 +2186,9 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B155">
         <v>2013</v>
@@ -2189,9 +2197,9 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B156">
         <v>2014</v>
@@ -2200,9 +2208,9 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B157">
         <v>2015</v>
@@ -2211,9 +2219,9 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B158">
         <v>2016</v>
@@ -2222,9 +2230,9 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B159">
         <v>2017</v>
@@ -2233,9 +2241,9 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B160">
         <v>2018</v>
@@ -2244,9 +2252,9 @@
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B161">
         <v>2019</v>
@@ -2255,9 +2263,9 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B162">
         <v>2010</v>
@@ -2266,9 +2274,9 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B163">
         <v>2011</v>
@@ -2277,9 +2285,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B164">
         <v>2012</v>
@@ -2288,9 +2296,9 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B165">
         <v>2013</v>
@@ -2299,9 +2307,9 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B166">
         <v>2014</v>
@@ -2310,9 +2318,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B167">
         <v>2015</v>
@@ -2321,9 +2329,9 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B168">
         <v>2016</v>
@@ -2332,9 +2340,9 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B169">
         <v>2017</v>
@@ -2343,9 +2351,9 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B170">
         <v>2018</v>
@@ -2354,9 +2362,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B171">
         <v>2019</v>
@@ -2365,9 +2373,9 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B172">
         <v>2010</v>
@@ -2376,9 +2384,9 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B173">
         <v>2011</v>
@@ -2387,9 +2395,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B174">
         <v>2012</v>
@@ -2398,9 +2406,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B175">
         <v>2013</v>
@@ -2409,9 +2417,9 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B176">
         <v>2014</v>
@@ -2420,9 +2428,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B177">
         <v>2015</v>
@@ -2431,9 +2439,9 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B178">
         <v>2016</v>
@@ -2442,9 +2450,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B179">
         <v>2017</v>
@@ -2453,9 +2461,9 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B180">
         <v>2018</v>
@@ -2464,9 +2472,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B181">
         <v>2019</v>
@@ -2475,9 +2483,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B182">
         <v>2010</v>
@@ -2486,9 +2494,9 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B183">
         <v>2011</v>
@@ -2497,9 +2505,9 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B184">
         <v>2012</v>
@@ -2508,9 +2516,9 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B185">
         <v>2013</v>
@@ -2519,9 +2527,9 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B186">
         <v>2014</v>
@@ -2530,9 +2538,9 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B187">
         <v>2015</v>
@@ -2541,9 +2549,9 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B188">
         <v>2016</v>
@@ -2552,9 +2560,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B189">
         <v>2017</v>
@@ -2563,9 +2571,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B190">
         <v>2018</v>
@@ -2574,9 +2582,9 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B191">
         <v>2019</v>
@@ -2585,9 +2593,9 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B192">
         <v>2010</v>
@@ -2596,9 +2604,9 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B193">
         <v>2011</v>
@@ -2607,9 +2615,9 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B194">
         <v>2012</v>
@@ -2618,9 +2626,9 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B195">
         <v>2013</v>
@@ -2629,9 +2637,9 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B196">
         <v>2014</v>
@@ -2640,9 +2648,9 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B197">
         <v>2015</v>
@@ -2651,9 +2659,9 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B198">
         <v>2016</v>
@@ -2662,9 +2670,9 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B199">
         <v>2017</v>
@@ -2673,9 +2681,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B200">
         <v>2018</v>
@@ -2684,9 +2692,9 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B201">
         <v>2019</v>
